--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43923,6 +43923,41 @@
         <v>630500</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1397300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43958,6 +43958,41 @@
         <v>1397300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>1783400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43993,6 +43993,41 @@
         <v>1783400</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>755600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44028,6 +44028,41 @@
         <v>755600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>743800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44063,6 +44063,41 @@
         <v>743800</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>688000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44098,6 +44098,41 @@
         <v>688000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>414800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44133,6 +44133,41 @@
         <v>414800</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>182800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44168,6 +44168,41 @@
         <v>182800</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>393100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44203,6 +44203,41 @@
         <v>393100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>538700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44238,6 +44238,41 @@
         <v>538700</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1212400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44273,6 +44273,41 @@
         <v>1212400</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1923400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44308,6 +44308,41 @@
         <v>1923400</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1364300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44343,6 +44343,76 @@
         <v>1364300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>676400</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1827000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44413,6 +44413,76 @@
         <v>1827000</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>4484500</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>623300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44483,6 +44483,41 @@
         <v>623300</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>345900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44518,6 +44518,41 @@
         <v>345900</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>791000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44553,6 +44553,41 @@
         <v>791000</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>566000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44588,6 +44588,41 @@
         <v>566000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>2077600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44623,6 +44623,76 @@
         <v>2077600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>1352300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>623300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44693,6 +44693,41 @@
         <v>623300</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>593500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44728,6 +44728,41 @@
         <v>593500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1805100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2109"/>
+  <dimension ref="A1:I2110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75143,6 +75143,41 @@
         <v>1805100</v>
       </c>
     </row>
+    <row r="2110">
+      <c r="A2110" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2110" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2110" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2110" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2110" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2110" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="G2110" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2110" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2110" t="n">
+        <v>2324900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2110"/>
+  <dimension ref="A1:I2111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75178,6 +75178,41 @@
         <v>2324900</v>
       </c>
     </row>
+    <row r="2111">
+      <c r="A2111" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2111" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2111" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2111" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2111" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2111" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2111" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2111" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2111" t="n">
+        <v>599600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2111"/>
+  <dimension ref="A1:I2112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75213,6 +75213,41 @@
         <v>599600</v>
       </c>
     </row>
+    <row r="2112">
+      <c r="A2112" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2112" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2112" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2112" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2112" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2112" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2112" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H2112" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2112" t="n">
+        <v>1978900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2112"/>
+  <dimension ref="A1:I2113"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75248,6 +75248,41 @@
         <v>1978900</v>
       </c>
     </row>
+    <row r="2113">
+      <c r="A2113" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2113" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2113" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2113" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2113" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="F2113" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="G2113" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="H2113" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2113" t="n">
+        <v>5316100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2113"/>
+  <dimension ref="A1:I2114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75283,6 +75283,41 @@
         <v>5316100</v>
       </c>
     </row>
+    <row r="2114">
+      <c r="A2114" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2114" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2114" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2114" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2114" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2114" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2114" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="I2114" t="n">
+        <v>1207800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2114"/>
+  <dimension ref="A1:I2115"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75318,6 +75318,41 @@
         <v>1207800</v>
       </c>
     </row>
+    <row r="2115">
+      <c r="A2115" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2115" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2115" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2115" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2115" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2115" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="G2115" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="H2115" t="n">
+        <v>0.075</v>
+      </c>
+      <c r="I2115" t="n">
+        <v>105800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2115"/>
+  <dimension ref="A1:I2116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75353,6 +75353,41 @@
         <v>105800</v>
       </c>
     </row>
+    <row r="2116">
+      <c r="A2116" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2116" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2116" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2116" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2116" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="F2116" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="G2116" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="H2116" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2116" t="n">
+        <v>509600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2116"/>
+  <dimension ref="A1:I2117"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75388,6 +75388,41 @@
         <v>509600</v>
       </c>
     </row>
+    <row r="2117">
+      <c r="A2117" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2117" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2117" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2117" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2117" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2117" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2117" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2117" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2117" t="n">
+        <v>677700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2117"/>
+  <dimension ref="A1:I2118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75423,6 +75423,41 @@
         <v>677700</v>
       </c>
     </row>
+    <row r="2118">
+      <c r="A2118" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2118" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2118" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2118" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="F2118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="G2118" t="n">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="H2118" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="I2118" t="n">
+        <v>257900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2118"/>
+  <dimension ref="A1:I2119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75458,6 +75458,41 @@
         <v>257900</v>
       </c>
     </row>
+    <row r="2119">
+      <c r="A2119" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2119" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2119" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2119" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2119" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2119" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2119" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2119" t="n">
+        <v>1070000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2119"/>
+  <dimension ref="A1:I2120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75493,6 +75493,41 @@
         <v>1070000</v>
       </c>
     </row>
+    <row r="2120">
+      <c r="A2120" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2120" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2120" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2120" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2120" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="F2120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="G2120" t="n">
+        <v>0.095</v>
+      </c>
+      <c r="H2120" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="I2120" t="n">
+        <v>452000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2120"/>
+  <dimension ref="A1:I2121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75528,6 +75528,41 @@
         <v>452000</v>
       </c>
     </row>
+    <row r="2121">
+      <c r="A2121" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2121" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2121" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2121" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="F2121" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2121" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2121" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2121" t="n">
+        <v>968000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2121"/>
+  <dimension ref="A1:I2122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75563,6 +75563,41 @@
         <v>968000</v>
       </c>
     </row>
+    <row r="2122">
+      <c r="A2122" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2122" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2122" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2122" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2122" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2122" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2122" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2122" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="I2122" t="n">
+        <v>1490900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2122"/>
+  <dimension ref="A1:I2123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75598,6 +75598,41 @@
         <v>1490900</v>
       </c>
     </row>
+    <row r="2123">
+      <c r="A2123" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2123" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2123" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2123" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2123" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2123" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="G2123" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="H2123" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="I2123" t="n">
+        <v>564200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/0039.xlsx
+++ b/data/0039.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2123"/>
+  <dimension ref="A1:I2124"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -75633,6 +75633,41 @@
         <v>564200</v>
       </c>
     </row>
+    <row r="2124">
+      <c r="A2124" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2124" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2124" t="inlineStr">
+        <is>
+          <t>0039</t>
+        </is>
+      </c>
+      <c r="D2124" t="inlineStr">
+        <is>
+          <t>GFM</t>
+        </is>
+      </c>
+      <c r="E2124" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="F2124" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2124" t="n">
+        <v>0.125</v>
+      </c>
+      <c r="H2124" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2124" t="n">
+        <v>1014200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
